--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M110"/>
+  <dimension ref="A1:N110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -664,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -956,6 +975,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -997,6 +1017,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1038,6 +1059,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1073,6 +1095,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1100,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1108,6 +1131,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1143,6 +1167,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,6 +1203,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1213,6 +1239,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1240,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1248,6 +1275,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1283,6 +1311,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1310,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1318,6 +1347,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1345,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1353,6 +1383,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1380,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1388,6 +1419,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1415,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1423,6 +1455,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1450,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1458,6 +1491,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1520,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1528,6 +1563,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1555,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1563,6 +1599,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1598,6 +1635,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1633,6 +1671,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1660,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1668,6 +1707,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1695,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1703,6 +1743,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1738,6 +1779,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1773,6 +1815,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1808,6 +1851,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1843,6 +1887,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1878,6 +1923,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,6 +1959,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1948,6 +1995,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1983,6 +2031,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2018,6 +2067,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2053,6 +2103,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2088,6 +2139,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2123,6 +2175,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2150,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2158,6 +2211,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2185,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2193,6 +2247,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2228,6 +2283,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2263,6 +2319,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2298,6 +2355,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2333,6 +2391,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2368,6 +2427,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2403,6 +2463,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2438,6 +2499,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2473,6 +2535,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2508,6 +2571,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2543,6 +2607,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2578,6 +2643,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2613,6 +2679,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2648,6 +2715,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2683,6 +2751,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2718,6 +2787,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2745,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2753,6 +2823,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2788,6 +2859,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2823,6 +2895,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2858,6 +2931,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2893,6 +2967,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2928,6 +3003,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2963,6 +3039,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2998,6 +3075,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3033,6 +3111,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3068,6 +3147,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3103,6 +3183,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3138,6 +3219,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3173,6 +3255,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3208,6 +3291,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3243,6 +3327,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3270,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3278,6 +3363,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3313,6 +3399,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3348,6 +3435,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3383,6 +3471,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3418,6 +3507,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3453,6 +3543,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3488,6 +3579,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3523,6 +3615,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3558,6 +3651,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3593,6 +3687,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3628,6 +3723,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3663,6 +3759,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3698,6 +3795,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3733,6 +3831,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3768,6 +3867,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3803,6 +3903,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3838,6 +3939,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3873,6 +3975,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3914,6 +4017,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3953,6 +4057,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3994,6 +4099,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4033,6 +4139,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4072,6 +4179,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4111,6 +4219,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4150,6 +4259,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4189,6 +4299,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4228,6 +4339,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4267,6 +4379,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4308,6 +4421,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.689</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>9.689</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.689</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9.689</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>52</v>
+        <v>94321.6422</v>
       </c>
       <c r="G2" t="n">
-        <v>-1984800.301607352</v>
+        <v>-1412745.285807352</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.689</v>
+        <v>9.6</v>
       </c>
       <c r="C3" t="n">
-        <v>9.689</v>
+        <v>9.6</v>
       </c>
       <c r="D3" t="n">
-        <v>9.689</v>
+        <v>9.6</v>
       </c>
       <c r="E3" t="n">
-        <v>9.689</v>
+        <v>9.6</v>
       </c>
       <c r="F3" t="n">
-        <v>24393.0415</v>
+        <v>462.002</v>
       </c>
       <c r="G3" t="n">
-        <v>-1984800.301607352</v>
+        <v>-1413207.287807352</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.679</v>
+        <v>9.599</v>
       </c>
       <c r="C4" t="n">
-        <v>9.68</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>9.68</v>
+        <v>9.599</v>
       </c>
       <c r="E4" t="n">
-        <v>9.679</v>
+        <v>9.593999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>15638.29</v>
+        <v>11008.876</v>
       </c>
       <c r="G4" t="n">
-        <v>-2000438.591607352</v>
+        <v>-1424216.163807352</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9.69</v>
+        <v>9.586</v>
       </c>
       <c r="C5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="D5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.586</v>
       </c>
       <c r="E5" t="n">
-        <v>9.69</v>
+        <v>9.56</v>
       </c>
       <c r="F5" t="n">
-        <v>5983.319</v>
+        <v>150765.3846</v>
       </c>
       <c r="G5" t="n">
-        <v>-1994455.272607352</v>
+        <v>-1574981.548407352</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.699</v>
+        <v>9.56</v>
       </c>
       <c r="C6" t="n">
-        <v>9.699</v>
+        <v>9.551</v>
       </c>
       <c r="D6" t="n">
-        <v>9.699</v>
+        <v>9.56</v>
       </c>
       <c r="E6" t="n">
-        <v>9.699</v>
+        <v>9.551</v>
       </c>
       <c r="F6" t="n">
-        <v>29948.4333</v>
+        <v>72246.2497</v>
       </c>
       <c r="G6" t="n">
-        <v>-2024403.705907352</v>
+        <v>-1647227.798107352</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.698</v>
+        <v>9.552</v>
       </c>
       <c r="C7" t="n">
-        <v>9.698</v>
+        <v>9.551</v>
       </c>
       <c r="D7" t="n">
-        <v>9.698</v>
+        <v>9.552</v>
       </c>
       <c r="E7" t="n">
-        <v>9.698</v>
+        <v>9.551</v>
       </c>
       <c r="F7" t="n">
-        <v>56289.9458</v>
+        <v>77217.6039</v>
       </c>
       <c r="G7" t="n">
-        <v>-2080693.651707352</v>
+        <v>-1647227.798107352</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9.698</v>
+        <v>9.56</v>
       </c>
       <c r="C8" t="n">
-        <v>9.698</v>
+        <v>9.551</v>
       </c>
       <c r="D8" t="n">
-        <v>9.698</v>
+        <v>9.56</v>
       </c>
       <c r="E8" t="n">
-        <v>9.698</v>
+        <v>9.551</v>
       </c>
       <c r="F8" t="n">
-        <v>19077.5484</v>
+        <v>42821.7247</v>
       </c>
       <c r="G8" t="n">
-        <v>-2080693.651707352</v>
+        <v>-1647227.798107352</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9.602</v>
+        <v>9.551</v>
       </c>
       <c r="C9" t="n">
-        <v>9.602</v>
+        <v>9.551</v>
       </c>
       <c r="D9" t="n">
-        <v>9.602</v>
+        <v>9.551</v>
       </c>
       <c r="E9" t="n">
-        <v>9.602</v>
+        <v>9.551</v>
       </c>
       <c r="F9" t="n">
-        <v>2512.4725</v>
+        <v>18002.3128</v>
       </c>
       <c r="G9" t="n">
-        <v>-2083206.124207352</v>
+        <v>-1647227.798107352</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9.609999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="C10" t="n">
-        <v>9.609999999999999</v>
+        <v>9.551</v>
       </c>
       <c r="D10" t="n">
-        <v>9.609999999999999</v>
+        <v>9.56</v>
       </c>
       <c r="E10" t="n">
-        <v>9.609999999999999</v>
+        <v>9.551</v>
       </c>
       <c r="F10" t="n">
-        <v>17066.1052</v>
+        <v>78372.93369999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-2066140.019007352</v>
+        <v>-1647227.798107352</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9.601000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="C11" t="n">
-        <v>9.592000000000001</v>
+        <v>9.551</v>
       </c>
       <c r="D11" t="n">
-        <v>9.601000000000001</v>
+        <v>9.57</v>
       </c>
       <c r="E11" t="n">
-        <v>9.592000000000001</v>
+        <v>9.551</v>
       </c>
       <c r="F11" t="n">
-        <v>50000</v>
+        <v>61682.5686</v>
       </c>
       <c r="G11" t="n">
-        <v>-2116140.019007352</v>
+        <v>-1647227.798107352</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9.592000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="C12" t="n">
-        <v>9.590999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="D12" t="n">
-        <v>9.592000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="E12" t="n">
-        <v>9.590999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="F12" t="n">
-        <v>51754</v>
+        <v>1251.5749</v>
       </c>
       <c r="G12" t="n">
-        <v>-2167894.019007352</v>
+        <v>-1645976.223207352</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.590999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="C13" t="n">
-        <v>9.590999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D13" t="n">
-        <v>9.590999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="E13" t="n">
-        <v>9.590999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="F13" t="n">
-        <v>3000</v>
+        <v>8521.1561</v>
       </c>
       <c r="G13" t="n">
-        <v>-2167894.019007352</v>
+        <v>-1637455.067107352</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9.609999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="C14" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="D14" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E14" t="n">
-        <v>9.609999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="F14" t="n">
-        <v>171.3302</v>
+        <v>64873.9288</v>
       </c>
       <c r="G14" t="n">
-        <v>-2167722.688807352</v>
+        <v>-1572581.138307352</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>9.609999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>316257.7946</v>
+        <v>14331</v>
       </c>
       <c r="G15" t="n">
-        <v>-2167722.688807352</v>
+        <v>-1586912.138307352</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,35 +942,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9.69</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="D16" t="n">
-        <v>9.69</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="F16" t="n">
-        <v>55</v>
+        <v>34002.4381</v>
       </c>
       <c r="G16" t="n">
-        <v>-2167667.688807352</v>
+        <v>-1620914.576407352</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>9.609999999999999</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
@@ -982,38 +978,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="C17" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="D17" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="E17" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="F17" t="n">
-        <v>7482.2357</v>
+        <v>4777</v>
       </c>
       <c r="G17" t="n">
-        <v>-2167667.688807352</v>
+        <v>-1620914.576407352</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1024,38 +1014,32 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="C18" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="D18" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="E18" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="F18" t="n">
-        <v>15950</v>
+        <v>13471.4065</v>
       </c>
       <c r="G18" t="n">
-        <v>-2167667.688807352</v>
+        <v>-1620914.576407352</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1066,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9.69</v>
+        <v>9.59</v>
       </c>
       <c r="C19" t="n">
-        <v>9.67</v>
+        <v>9.59</v>
       </c>
       <c r="D19" t="n">
-        <v>9.69</v>
+        <v>9.59</v>
       </c>
       <c r="E19" t="n">
-        <v>9.67</v>
+        <v>9.59</v>
       </c>
       <c r="F19" t="n">
-        <v>277.7024</v>
+        <v>248930.8504</v>
       </c>
       <c r="G19" t="n">
-        <v>-2167945.391207352</v>
+        <v>-1869845.426807352</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1102,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="C20" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="D20" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="E20" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="F20" t="n">
-        <v>52</v>
+        <v>4764.2404</v>
       </c>
       <c r="G20" t="n">
-        <v>-2167893.391207352</v>
+        <v>-1865081.186407352</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1138,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="C21" t="n">
-        <v>9.698</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>9.698</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>9.69</v>
+        <v>9.6</v>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>17327</v>
       </c>
       <c r="G21" t="n">
-        <v>-2167643.391207352</v>
+        <v>-1847754.186407352</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1174,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9.698</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>9.698</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>9.698</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>9.698</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>1924.31</v>
+        <v>33248</v>
       </c>
       <c r="G22" t="n">
-        <v>-2167643.391207352</v>
+        <v>-1847754.186407352</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1210,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.67</v>
+        <v>9.59</v>
       </c>
       <c r="C23" t="n">
-        <v>9.6</v>
+        <v>9.59</v>
       </c>
       <c r="D23" t="n">
-        <v>9.67</v>
+        <v>9.59</v>
       </c>
       <c r="E23" t="n">
-        <v>9.6</v>
+        <v>9.59</v>
       </c>
       <c r="F23" t="n">
-        <v>205269.5729</v>
+        <v>180000</v>
       </c>
       <c r="G23" t="n">
-        <v>-2372912.964107352</v>
+        <v>-2027754.186407352</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1246,32 +1230,38 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.69</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>9.69</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>9.69</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>9.69</v>
+        <v>9.59</v>
       </c>
       <c r="F24" t="n">
-        <v>52</v>
+        <v>14966.2448</v>
       </c>
       <c r="G24" t="n">
-        <v>-2372860.964107352</v>
+        <v>-2012787.941607352</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9.59</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1282,32 +1272,36 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9.69</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>9.69</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>9.69</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>9.69</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>204.8542</v>
+        <v>1038.4216</v>
       </c>
       <c r="G25" t="n">
-        <v>-2372860.964107352</v>
+        <v>-2012787.941607352</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1318,32 +1312,36 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>9.619999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="C26" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="D26" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="E26" t="n">
-        <v>9.619999999999999</v>
+        <v>9.59</v>
       </c>
       <c r="F26" t="n">
-        <v>35768.4</v>
+        <v>2064.36</v>
       </c>
       <c r="G26" t="n">
-        <v>-2337092.564107352</v>
+        <v>-2014852.301607352</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1354,32 +1352,38 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="C27" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="D27" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="E27" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="F27" t="n">
-        <v>13242.06</v>
+        <v>41030.9768</v>
       </c>
       <c r="G27" t="n">
-        <v>-2337092.564107352</v>
+        <v>-2014852.301607352</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9.59</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1390,32 +1394,38 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="C28" t="n">
-        <v>9.699</v>
+        <v>9.59</v>
       </c>
       <c r="D28" t="n">
-        <v>9.699</v>
+        <v>9.59</v>
       </c>
       <c r="E28" t="n">
-        <v>9.698</v>
+        <v>9.59</v>
       </c>
       <c r="F28" t="n">
-        <v>45640.9733</v>
+        <v>4781.1426</v>
       </c>
       <c r="G28" t="n">
-        <v>-2291451.590807352</v>
+        <v>-2014852.301607352</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.59</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1426,32 +1436,38 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>9.699</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>9.699</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>9.699</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>9.699</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7274</v>
+        <v>30000</v>
       </c>
       <c r="G29" t="n">
-        <v>-2291451.590807352</v>
+        <v>-1984852.301607352</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.59</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1462,32 +1478,38 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9.611000000000001</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="C30" t="n">
         <v>9.590999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>9.611000000000001</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="E30" t="n">
         <v>9.590999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>28599.1181</v>
+        <v>42075.2783</v>
       </c>
       <c r="G30" t="n">
-        <v>-2320050.708907352</v>
+        <v>-1984852.301607352</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>9.590999999999999</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1498,32 +1520,38 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>9.694000000000001</v>
+        <v>9.689</v>
       </c>
       <c r="C31" t="n">
-        <v>9.694000000000001</v>
+        <v>9.689</v>
       </c>
       <c r="D31" t="n">
-        <v>9.694000000000001</v>
+        <v>9.689</v>
       </c>
       <c r="E31" t="n">
-        <v>9.694000000000001</v>
+        <v>9.689</v>
       </c>
       <c r="F31" t="n">
         <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>-2319998.708907352</v>
+        <v>-1984800.301607352</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>9.590999999999999</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1534,32 +1562,36 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9.699</v>
+        <v>9.689</v>
       </c>
       <c r="C32" t="n">
-        <v>9.699</v>
+        <v>9.689</v>
       </c>
       <c r="D32" t="n">
-        <v>9.699</v>
+        <v>9.689</v>
       </c>
       <c r="E32" t="n">
-        <v>9.699</v>
+        <v>9.689</v>
       </c>
       <c r="F32" t="n">
-        <v>52</v>
+        <v>24393.0415</v>
       </c>
       <c r="G32" t="n">
-        <v>-2319946.708907352</v>
+        <v>-1984800.301607352</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1570,32 +1602,36 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9.699</v>
+        <v>9.679</v>
       </c>
       <c r="C33" t="n">
-        <v>9.699</v>
+        <v>9.68</v>
       </c>
       <c r="D33" t="n">
-        <v>9.699</v>
+        <v>9.68</v>
       </c>
       <c r="E33" t="n">
-        <v>9.699</v>
+        <v>9.679</v>
       </c>
       <c r="F33" t="n">
-        <v>22793.93</v>
+        <v>15638.29</v>
       </c>
       <c r="G33" t="n">
-        <v>-2319946.708907352</v>
+        <v>-2000438.591607352</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1606,7 +1642,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>9.699</v>
+        <v>9.69</v>
       </c>
       <c r="C34" t="n">
         <v>9.699999999999999</v>
@@ -1615,23 +1651,27 @@
         <v>9.699999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>9.699</v>
+        <v>9.69</v>
       </c>
       <c r="F34" t="n">
-        <v>22793.93</v>
+        <v>5983.319</v>
       </c>
       <c r="G34" t="n">
-        <v>-2297152.778907352</v>
+        <v>-1994455.272607352</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1642,7 +1682,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9.602</v>
+        <v>9.699</v>
       </c>
       <c r="C35" t="n">
         <v>9.699</v>
@@ -1651,23 +1691,27 @@
         <v>9.699</v>
       </c>
       <c r="E35" t="n">
-        <v>9.602</v>
+        <v>9.699</v>
       </c>
       <c r="F35" t="n">
-        <v>37646.02</v>
+        <v>29948.4333</v>
       </c>
       <c r="G35" t="n">
-        <v>-2334798.798907352</v>
+        <v>-2024403.705907352</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1678,32 +1722,36 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="C36" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="D36" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="E36" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="F36" t="n">
-        <v>5557.78</v>
+        <v>56289.9458</v>
       </c>
       <c r="G36" t="n">
-        <v>-2334798.798907352</v>
+        <v>-2080693.651707352</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1714,32 +1762,36 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="C37" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="D37" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="E37" t="n">
-        <v>9.699</v>
+        <v>9.698</v>
       </c>
       <c r="F37" t="n">
-        <v>28523.8</v>
+        <v>19077.5484</v>
       </c>
       <c r="G37" t="n">
-        <v>-2334798.798907352</v>
+        <v>-2080693.651707352</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1750,32 +1802,36 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9.699</v>
+        <v>9.602</v>
       </c>
       <c r="C38" t="n">
-        <v>9.699999999999999</v>
+        <v>9.602</v>
       </c>
       <c r="D38" t="n">
-        <v>9.699999999999999</v>
+        <v>9.602</v>
       </c>
       <c r="E38" t="n">
-        <v>9.699</v>
+        <v>9.602</v>
       </c>
       <c r="F38" t="n">
-        <v>62722.03</v>
+        <v>2512.4725</v>
       </c>
       <c r="G38" t="n">
-        <v>-2272076.768907352</v>
+        <v>-2083206.124207352</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1786,32 +1842,36 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9.708</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>9.708</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>9.708</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>9.708</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>17066.1052</v>
       </c>
       <c r="G39" t="n">
-        <v>-2272024.768907352</v>
+        <v>-2066140.019007352</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1822,32 +1882,38 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="C40" t="n">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="D40" t="n">
+        <v>9.601000000000001</v>
+      </c>
+      <c r="E40" t="n">
+        <v>9.592000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2116140.019007352</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>9.609999999999999</v>
       </c>
-      <c r="C40" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D40" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="E40" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="F40" t="n">
-        <v>253685.4517</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-2525710.220607352</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1858,22 +1924,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>9.609999999999999</v>
+        <v>9.592000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>9.609999999999999</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>9.609999999999999</v>
+        <v>9.592000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>9.609999999999999</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>17158.074</v>
+        <v>51754</v>
       </c>
       <c r="G41" t="n">
-        <v>-2508552.146607352</v>
+        <v>-2167894.019007352</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1883,7 +1949,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1894,32 +1964,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.611000000000001</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>9.6</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>9.611000000000001</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>9.6</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>254676.5998</v>
+        <v>3000</v>
       </c>
       <c r="G42" t="n">
-        <v>-2763228.746407352</v>
+        <v>-2167894.019007352</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>9.590999999999999</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1930,32 +2006,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9.603</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>9.603</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>9.603</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>9.603</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>5199.3824</v>
+        <v>171.3302</v>
       </c>
       <c r="G43" t="n">
-        <v>-2758029.364007352</v>
+        <v>-2167722.688807352</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>9.590999999999999</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1966,32 +2048,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9.69</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>9.69</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>9.69</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>9.6</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>22289.6223</v>
+        <v>316257.7946</v>
       </c>
       <c r="G44" t="n">
-        <v>-2735739.741707352</v>
+        <v>-2167722.688807352</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2014,20 +2102,26 @@
         <v>9.69</v>
       </c>
       <c r="F45" t="n">
-        <v>3864.09</v>
+        <v>55</v>
       </c>
       <c r="G45" t="n">
-        <v>-2735739.741707352</v>
+        <v>-2167667.688807352</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>9.609999999999999</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2041,29 +2135,33 @@
         <v>9.69</v>
       </c>
       <c r="C46" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="D46" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E46" t="n">
         <v>9.69</v>
       </c>
       <c r="F46" t="n">
-        <v>52.4545</v>
+        <v>7482.2357</v>
       </c>
       <c r="G46" t="n">
-        <v>-2735687.287207352</v>
+        <v>-2167667.688807352</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2074,22 +2172,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>9.619999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="C47" t="n">
-        <v>9.6</v>
+        <v>9.69</v>
       </c>
       <c r="D47" t="n">
-        <v>9.619999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E47" t="n">
-        <v>9.6</v>
+        <v>9.69</v>
       </c>
       <c r="F47" t="n">
-        <v>62722.03</v>
+        <v>15950</v>
       </c>
       <c r="G47" t="n">
-        <v>-2798409.317207352</v>
+        <v>-2167667.688807352</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2099,10 +2197,12 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2110,22 +2210,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="C48" t="n">
-        <v>9.699999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="D48" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E48" t="n">
-        <v>9.609999999999999</v>
+        <v>9.67</v>
       </c>
       <c r="F48" t="n">
-        <v>46436.1087</v>
+        <v>277.7024</v>
       </c>
       <c r="G48" t="n">
-        <v>-2751973.208507352</v>
+        <v>-2167945.391207352</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2146,22 +2246,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="C49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="D49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E49" t="n">
-        <v>9.699999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F49" t="n">
-        <v>99269.59699999999</v>
+        <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>-2751973.208507352</v>
+        <v>-2167893.391207352</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2182,28 +2282,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>9.708</v>
+        <v>9.69</v>
       </c>
       <c r="C50" t="n">
-        <v>9.708</v>
+        <v>9.698</v>
       </c>
       <c r="D50" t="n">
-        <v>9.708</v>
+        <v>9.698</v>
       </c>
       <c r="E50" t="n">
-        <v>9.708</v>
+        <v>9.69</v>
       </c>
       <c r="F50" t="n">
-        <v>54.4545</v>
+        <v>250</v>
       </c>
       <c r="G50" t="n">
-        <v>-2751918.754007352</v>
+        <v>-2167643.391207352</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2218,28 +2318,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="C51" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="D51" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="E51" t="n">
-        <v>9.699999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="F51" t="n">
-        <v>987.2968</v>
+        <v>1924.31</v>
       </c>
       <c r="G51" t="n">
-        <v>-2752906.050807352</v>
+        <v>-2167643.391207352</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2254,28 +2354,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>9.698</v>
+        <v>9.67</v>
       </c>
       <c r="C52" t="n">
-        <v>9.698</v>
+        <v>9.6</v>
       </c>
       <c r="D52" t="n">
-        <v>9.698</v>
+        <v>9.67</v>
       </c>
       <c r="E52" t="n">
-        <v>9.698</v>
+        <v>9.6</v>
       </c>
       <c r="F52" t="n">
-        <v>3186.4554</v>
+        <v>205269.5729</v>
       </c>
       <c r="G52" t="n">
-        <v>-2756092.506207352</v>
+        <v>-2372912.964107352</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2290,22 +2390,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="C53" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="D53" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="E53" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F53" t="n">
-        <v>607.4081</v>
+        <v>52</v>
       </c>
       <c r="G53" t="n">
-        <v>-2756699.914307352</v>
+        <v>-2372860.964107352</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2329,25 +2429,25 @@
         <v>9.69</v>
       </c>
       <c r="C54" t="n">
-        <v>9.698</v>
+        <v>9.69</v>
       </c>
       <c r="D54" t="n">
-        <v>9.698</v>
+        <v>9.69</v>
       </c>
       <c r="E54" t="n">
         <v>9.69</v>
       </c>
       <c r="F54" t="n">
-        <v>610</v>
+        <v>204.8542</v>
       </c>
       <c r="G54" t="n">
-        <v>-2756089.914307352</v>
+        <v>-2372860.964107352</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2362,7 +2462,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9.698</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C55" t="n">
         <v>9.698</v>
@@ -2371,19 +2471,19 @@
         <v>9.698</v>
       </c>
       <c r="E55" t="n">
-        <v>9.698</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F55" t="n">
-        <v>72018.78</v>
+        <v>35768.4</v>
       </c>
       <c r="G55" t="n">
-        <v>-2756089.914307352</v>
+        <v>-2337092.564107352</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2398,22 +2498,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>9.619999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="C56" t="n">
-        <v>9.614000000000001</v>
+        <v>9.698</v>
       </c>
       <c r="D56" t="n">
-        <v>9.619999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="E56" t="n">
-        <v>9.614000000000001</v>
+        <v>9.698</v>
       </c>
       <c r="F56" t="n">
-        <v>51089.7732</v>
+        <v>13242.06</v>
       </c>
       <c r="G56" t="n">
-        <v>-2807179.687507352</v>
+        <v>-2337092.564107352</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2434,28 +2534,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9.619999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="C57" t="n">
-        <v>9.615</v>
+        <v>9.699</v>
       </c>
       <c r="D57" t="n">
-        <v>9.619999999999999</v>
+        <v>9.699</v>
       </c>
       <c r="E57" t="n">
-        <v>9.615</v>
+        <v>9.698</v>
       </c>
       <c r="F57" t="n">
-        <v>37602.8878</v>
+        <v>45640.9733</v>
       </c>
       <c r="G57" t="n">
-        <v>-2769576.799707352</v>
+        <v>-2291451.590807352</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2470,22 +2570,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9.615</v>
+        <v>9.699</v>
       </c>
       <c r="C58" t="n">
-        <v>9.615</v>
+        <v>9.699</v>
       </c>
       <c r="D58" t="n">
-        <v>9.615</v>
+        <v>9.699</v>
       </c>
       <c r="E58" t="n">
-        <v>9.615</v>
+        <v>9.699</v>
       </c>
       <c r="F58" t="n">
-        <v>8137.177</v>
+        <v>233.7274</v>
       </c>
       <c r="G58" t="n">
-        <v>-2769576.799707352</v>
+        <v>-2291451.590807352</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2506,22 +2606,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9.68</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>9.68</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>9.68</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>9.68</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>54.4444</v>
+        <v>28599.1181</v>
       </c>
       <c r="G59" t="n">
-        <v>-2769522.355307352</v>
+        <v>-2320050.708907352</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2542,31 +2642,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>9.615</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>9.614000000000001</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>9.615</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>9.614000000000001</v>
+        <v>9.694000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>116672.35</v>
+        <v>52</v>
       </c>
       <c r="G60" t="n">
-        <v>-2886194.705307352</v>
+        <v>-2319998.708907352</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>9.590999999999999</v>
+      </c>
+      <c r="K60" t="n">
+        <v>9.590999999999999</v>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
@@ -2578,22 +2682,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="C61" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="D61" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="E61" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="F61" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G61" t="n">
-        <v>-2886140.705307352</v>
+        <v>-2319946.708907352</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2602,8 +2706,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>9.590999999999999</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2724,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="C62" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="D62" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="E62" t="n">
-        <v>9.66</v>
+        <v>9.699</v>
       </c>
       <c r="F62" t="n">
-        <v>108</v>
+        <v>22793.93</v>
       </c>
       <c r="G62" t="n">
-        <v>-2886140.705307352</v>
+        <v>-2319946.708907352</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2638,8 +2748,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>9.590999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2650,22 +2766,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9.614000000000001</v>
+        <v>9.699</v>
       </c>
       <c r="C63" t="n">
-        <v>9.613</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>9.614000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>9.613</v>
+        <v>9.699</v>
       </c>
       <c r="F63" t="n">
-        <v>133215.5799</v>
+        <v>22793.93</v>
       </c>
       <c r="G63" t="n">
-        <v>-3019356.285207352</v>
+        <v>-2297152.778907352</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2686,22 +2802,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.67</v>
+        <v>9.602</v>
       </c>
       <c r="C64" t="n">
-        <v>9.67</v>
+        <v>9.699</v>
       </c>
       <c r="D64" t="n">
-        <v>9.67</v>
+        <v>9.699</v>
       </c>
       <c r="E64" t="n">
-        <v>9.67</v>
+        <v>9.602</v>
       </c>
       <c r="F64" t="n">
-        <v>54</v>
+        <v>37646.02</v>
       </c>
       <c r="G64" t="n">
-        <v>-3019302.285207352</v>
+        <v>-2334798.798907352</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2722,22 +2838,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9.67</v>
+        <v>9.699</v>
       </c>
       <c r="C65" t="n">
-        <v>9.67</v>
+        <v>9.699</v>
       </c>
       <c r="D65" t="n">
-        <v>9.67</v>
+        <v>9.699</v>
       </c>
       <c r="E65" t="n">
-        <v>9.67</v>
+        <v>9.699</v>
       </c>
       <c r="F65" t="n">
-        <v>7192.1924</v>
+        <v>5557.78</v>
       </c>
       <c r="G65" t="n">
-        <v>-3019302.285207352</v>
+        <v>-2334798.798907352</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2758,22 +2874,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>9.698</v>
+        <v>9.699</v>
       </c>
       <c r="C66" t="n">
-        <v>9.698</v>
+        <v>9.699</v>
       </c>
       <c r="D66" t="n">
-        <v>9.698</v>
+        <v>9.699</v>
       </c>
       <c r="E66" t="n">
-        <v>9.698</v>
+        <v>9.699</v>
       </c>
       <c r="F66" t="n">
-        <v>52</v>
+        <v>28523.8</v>
       </c>
       <c r="G66" t="n">
-        <v>-3019250.285207352</v>
+        <v>-2334798.798907352</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2794,28 +2910,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9.619999999999999</v>
+        <v>9.699</v>
       </c>
       <c r="C67" t="n">
-        <v>9.613</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>9.619999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>9.613</v>
+        <v>9.699</v>
       </c>
       <c r="F67" t="n">
-        <v>57078.1037</v>
+        <v>62722.03</v>
       </c>
       <c r="G67" t="n">
-        <v>-3076328.388907352</v>
+        <v>-2272076.768907352</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
@@ -2830,22 +2946,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9.609999999999999</v>
+        <v>9.708</v>
       </c>
       <c r="C68" t="n">
-        <v>9.609999999999999</v>
+        <v>9.708</v>
       </c>
       <c r="D68" t="n">
-        <v>9.609999999999999</v>
+        <v>9.708</v>
       </c>
       <c r="E68" t="n">
-        <v>9.609999999999999</v>
+        <v>9.708</v>
       </c>
       <c r="F68" t="n">
-        <v>6931.6692</v>
+        <v>52</v>
       </c>
       <c r="G68" t="n">
-        <v>-3083260.058107351</v>
+        <v>-2272024.768907352</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2866,22 +2982,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>9.66</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>9.698</v>
+        <v>9.6</v>
       </c>
       <c r="D69" t="n">
-        <v>9.698</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>9.66</v>
+        <v>9.6</v>
       </c>
       <c r="F69" t="n">
-        <v>169465.5946</v>
+        <v>253685.4517</v>
       </c>
       <c r="G69" t="n">
-        <v>-2913794.463507351</v>
+        <v>-2525710.220607352</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2902,31 +3018,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>9.621</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>9.621</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>9.621</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>9.621</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F70" t="n">
-        <v>24662.4826</v>
+        <v>17158.074</v>
       </c>
       <c r="G70" t="n">
-        <v>-2938456.946107352</v>
+        <v>-2508552.146607352</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K70" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
@@ -2938,32 +3058,40 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9.621</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>9.621</v>
+        <v>9.6</v>
       </c>
       <c r="D71" t="n">
-        <v>9.621</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>9.621</v>
+        <v>9.6</v>
       </c>
       <c r="F71" t="n">
-        <v>21726.4566</v>
+        <v>254676.5998</v>
       </c>
       <c r="G71" t="n">
-        <v>-2938456.946107352</v>
+        <v>-2763228.746407352</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="K71" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2974,32 +3102,40 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.613</v>
+        <v>9.603</v>
       </c>
       <c r="C72" t="n">
-        <v>9.613</v>
+        <v>9.603</v>
       </c>
       <c r="D72" t="n">
-        <v>9.613</v>
+        <v>9.603</v>
       </c>
       <c r="E72" t="n">
-        <v>9.613</v>
+        <v>9.603</v>
       </c>
       <c r="F72" t="n">
-        <v>22214.7062</v>
+        <v>5199.3824</v>
       </c>
       <c r="G72" t="n">
-        <v>-2960671.652307352</v>
+        <v>-2758029.364007352</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K72" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3010,32 +3146,40 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="C73" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="D73" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="E73" t="n">
-        <v>9.612</v>
+        <v>9.6</v>
       </c>
       <c r="F73" t="n">
-        <v>26009.1553</v>
+        <v>22289.6223</v>
       </c>
       <c r="G73" t="n">
-        <v>-2986680.807607352</v>
+        <v>-2735739.741707352</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>9.603</v>
+      </c>
+      <c r="K73" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3046,22 +3190,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="C74" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="D74" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="E74" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="F74" t="n">
-        <v>113.8798</v>
+        <v>3864.09</v>
       </c>
       <c r="G74" t="n">
-        <v>-2986680.807607352</v>
+        <v>-2735739.741707352</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3070,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3082,22 +3232,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="C75" t="n">
-        <v>9.612</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>9.612</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>9.612</v>
+        <v>9.69</v>
       </c>
       <c r="F75" t="n">
-        <v>116370.3465</v>
+        <v>52.4545</v>
       </c>
       <c r="G75" t="n">
-        <v>-2986680.807607352</v>
+        <v>-2735687.287207352</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3106,8 +3256,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3118,22 +3274,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9.612</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>9.612</v>
+        <v>9.6</v>
       </c>
       <c r="D76" t="n">
-        <v>9.612</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>9.612</v>
+        <v>9.6</v>
       </c>
       <c r="F76" t="n">
-        <v>151549.7068</v>
+        <v>62722.03</v>
       </c>
       <c r="G76" t="n">
-        <v>-2986680.807607352</v>
+        <v>-2798409.317207352</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3142,8 +3298,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3154,22 +3316,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9.621</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>9.621</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>6085.61</v>
+        <v>46436.1087</v>
       </c>
       <c r="G77" t="n">
-        <v>-2980595.197607352</v>
+        <v>-2751973.208507352</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3178,8 +3340,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3190,22 +3358,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>9552.856299999999</v>
+        <v>99269.59699999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-2980595.197607352</v>
+        <v>-2751973.208507352</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3214,8 +3382,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +3400,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>9.630000000000001</v>
+        <v>9.708</v>
       </c>
       <c r="C79" t="n">
-        <v>9.621</v>
+        <v>9.708</v>
       </c>
       <c r="D79" t="n">
-        <v>9.630000000000001</v>
+        <v>9.708</v>
       </c>
       <c r="E79" t="n">
-        <v>9.621</v>
+        <v>9.708</v>
       </c>
       <c r="F79" t="n">
-        <v>988241</v>
+        <v>54.4545</v>
       </c>
       <c r="G79" t="n">
-        <v>-2980595.197607352</v>
+        <v>-2751918.754007352</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3250,8 +3424,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3262,22 +3442,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>9.609999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>9.621</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>9.609999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>11759</v>
+        <v>987.2968</v>
       </c>
       <c r="G80" t="n">
-        <v>-2992354.197607352</v>
+        <v>-2752906.050807352</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3286,8 +3466,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3298,22 +3484,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>9.708</v>
+        <v>9.698</v>
       </c>
       <c r="C81" t="n">
-        <v>9.708</v>
+        <v>9.698</v>
       </c>
       <c r="D81" t="n">
-        <v>9.708</v>
+        <v>9.698</v>
       </c>
       <c r="E81" t="n">
-        <v>9.708</v>
+        <v>9.698</v>
       </c>
       <c r="F81" t="n">
-        <v>10169.7928</v>
+        <v>3186.4554</v>
       </c>
       <c r="G81" t="n">
-        <v>-2982184.404807352</v>
+        <v>-2756092.506207352</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3322,8 +3508,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3334,32 +3526,38 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>9.611000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>9.611000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>9.611000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>9.611000000000001</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>305</v>
+        <v>607.4081</v>
       </c>
       <c r="G82" t="n">
-        <v>-2982489.404807352</v>
+        <v>-2756699.914307352</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3370,22 +3568,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="C83" t="n">
-        <v>9.609999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="D83" t="n">
-        <v>9.609999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="E83" t="n">
-        <v>9.609999999999999</v>
+        <v>9.69</v>
       </c>
       <c r="F83" t="n">
-        <v>115957.6006</v>
+        <v>610</v>
       </c>
       <c r="G83" t="n">
-        <v>-3098447.005407352</v>
+        <v>-2756089.914307352</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3394,8 +3592,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3406,22 +3610,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>9.609999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="C84" t="n">
-        <v>9.609999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="D84" t="n">
-        <v>9.609999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="E84" t="n">
-        <v>9.609999999999999</v>
+        <v>9.698</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8624000000000001</v>
+        <v>72018.78</v>
       </c>
       <c r="G84" t="n">
-        <v>-3098447.005407352</v>
+        <v>-2756089.914307352</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3430,8 +3634,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3442,22 +3652,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9.583</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>9.553000000000001</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>9.583</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>9.553000000000001</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>4609.0394</v>
+        <v>51089.7732</v>
       </c>
       <c r="G85" t="n">
-        <v>-3103056.044807352</v>
+        <v>-2807179.687507352</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3466,8 +3676,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3478,22 +3694,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>9.553000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>9.553000000000001</v>
+        <v>9.615</v>
       </c>
       <c r="D86" t="n">
-        <v>9.553000000000001</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>9.553000000000001</v>
+        <v>9.615</v>
       </c>
       <c r="F86" t="n">
-        <v>2358.2484</v>
+        <v>37602.8878</v>
       </c>
       <c r="G86" t="n">
-        <v>-3103056.044807352</v>
+        <v>-2769576.799707352</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3502,8 +3718,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3736,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>9.609999999999999</v>
+        <v>9.615</v>
       </c>
       <c r="C87" t="n">
-        <v>9.609999999999999</v>
+        <v>9.615</v>
       </c>
       <c r="D87" t="n">
-        <v>9.609999999999999</v>
+        <v>9.615</v>
       </c>
       <c r="E87" t="n">
-        <v>9.609999999999999</v>
+        <v>9.615</v>
       </c>
       <c r="F87" t="n">
-        <v>54</v>
+        <v>8137.177</v>
       </c>
       <c r="G87" t="n">
-        <v>-3103002.044807352</v>
+        <v>-2769576.799707352</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3538,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3550,22 +3778,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>9.609999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="C88" t="n">
-        <v>9.611000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="D88" t="n">
-        <v>9.611000000000001</v>
+        <v>9.68</v>
       </c>
       <c r="E88" t="n">
-        <v>9.609999999999999</v>
+        <v>9.68</v>
       </c>
       <c r="F88" t="n">
-        <v>19997.3961</v>
+        <v>54.4444</v>
       </c>
       <c r="G88" t="n">
-        <v>-3083004.648707352</v>
+        <v>-2769522.355307352</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3574,8 +3802,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3586,22 +3820,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9.555</v>
+        <v>9.615</v>
       </c>
       <c r="C89" t="n">
-        <v>9.552</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>9.555</v>
+        <v>9.615</v>
       </c>
       <c r="E89" t="n">
-        <v>9.552</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="F89" t="n">
-        <v>116370.3465</v>
+        <v>116672.35</v>
       </c>
       <c r="G89" t="n">
-        <v>-3199374.995207352</v>
+        <v>-2886194.705307352</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3610,8 +3844,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3622,22 +3862,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>9.611000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="C90" t="n">
-        <v>9.611000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="D90" t="n">
-        <v>9.611000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="E90" t="n">
-        <v>9.611000000000001</v>
+        <v>9.66</v>
       </c>
       <c r="F90" t="n">
         <v>54</v>
       </c>
       <c r="G90" t="n">
-        <v>-3199320.995207352</v>
+        <v>-2886140.705307352</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3646,8 +3886,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3658,22 +3904,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="C91" t="n">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="D91" t="n">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="E91" t="n">
-        <v>9.6</v>
+        <v>9.66</v>
       </c>
       <c r="F91" t="n">
-        <v>9409.264300000001</v>
+        <v>108</v>
       </c>
       <c r="G91" t="n">
-        <v>-3208730.259507352</v>
+        <v>-2886140.705307352</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3682,8 +3928,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3694,22 +3946,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9.6</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>9.6</v>
+        <v>9.613</v>
       </c>
       <c r="D92" t="n">
-        <v>9.6</v>
+        <v>9.614000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>9.6</v>
+        <v>9.613</v>
       </c>
       <c r="F92" t="n">
-        <v>40000</v>
+        <v>133215.5799</v>
       </c>
       <c r="G92" t="n">
-        <v>-3208730.259507352</v>
+        <v>-3019356.285207352</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3718,8 +3970,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3730,22 +3988,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9.6</v>
+        <v>9.67</v>
       </c>
       <c r="C93" t="n">
-        <v>9.6</v>
+        <v>9.67</v>
       </c>
       <c r="D93" t="n">
-        <v>9.6</v>
+        <v>9.67</v>
       </c>
       <c r="E93" t="n">
-        <v>9.6</v>
+        <v>9.67</v>
       </c>
       <c r="F93" t="n">
-        <v>3638.9273</v>
+        <v>54</v>
       </c>
       <c r="G93" t="n">
-        <v>-3208730.259507352</v>
+        <v>-3019302.285207352</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3754,8 +4012,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3766,22 +4030,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9.611000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="C94" t="n">
-        <v>9.611000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="D94" t="n">
-        <v>9.611000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="E94" t="n">
-        <v>9.611000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="F94" t="n">
-        <v>486441.0323</v>
+        <v>7192.1924</v>
       </c>
       <c r="G94" t="n">
-        <v>-2722289.227207352</v>
+        <v>-3019302.285207352</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3790,8 +4054,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3802,22 +4072,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.69</v>
+        <v>9.698</v>
       </c>
       <c r="C95" t="n">
-        <v>9.69</v>
+        <v>9.698</v>
       </c>
       <c r="D95" t="n">
-        <v>9.69</v>
+        <v>9.698</v>
       </c>
       <c r="E95" t="n">
-        <v>9.69</v>
+        <v>9.698</v>
       </c>
       <c r="F95" t="n">
-        <v>1203.431</v>
+        <v>52</v>
       </c>
       <c r="G95" t="n">
-        <v>-2721085.796207352</v>
+        <v>-3019250.285207352</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3826,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3838,22 +4114,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>9.561</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>9.56</v>
+        <v>9.613</v>
       </c>
       <c r="D96" t="n">
-        <v>9.561</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>9.56</v>
+        <v>9.613</v>
       </c>
       <c r="F96" t="n">
-        <v>33072.91</v>
+        <v>57078.1037</v>
       </c>
       <c r="G96" t="n">
-        <v>-2754158.706207352</v>
+        <v>-3076328.388907352</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3862,8 +4138,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3874,22 +4156,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.555</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>9.552</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>9.555</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>9.552</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F97" t="n">
-        <v>53421.1209</v>
+        <v>6931.6692</v>
       </c>
       <c r="G97" t="n">
-        <v>-2807579.827107352</v>
+        <v>-3083260.058107351</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3898,8 +4180,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3910,22 +4198,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9.552</v>
+        <v>9.66</v>
       </c>
       <c r="C98" t="n">
-        <v>9.552</v>
+        <v>9.698</v>
       </c>
       <c r="D98" t="n">
-        <v>9.552</v>
+        <v>9.698</v>
       </c>
       <c r="E98" t="n">
-        <v>9.552</v>
+        <v>9.66</v>
       </c>
       <c r="F98" t="n">
-        <v>15826.5744</v>
+        <v>169465.5946</v>
       </c>
       <c r="G98" t="n">
-        <v>-2807579.827107352</v>
+        <v>-2913794.463507351</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3934,8 +4222,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3946,22 +4240,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9.56</v>
+        <v>9.621</v>
       </c>
       <c r="C99" t="n">
-        <v>9.56</v>
+        <v>9.621</v>
       </c>
       <c r="D99" t="n">
-        <v>9.56</v>
+        <v>9.621</v>
       </c>
       <c r="E99" t="n">
-        <v>9.56</v>
+        <v>9.621</v>
       </c>
       <c r="F99" t="n">
-        <v>80.19280000000001</v>
+        <v>24662.4826</v>
       </c>
       <c r="G99" t="n">
-        <v>-2807499.634307352</v>
+        <v>-2938456.946107352</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3970,8 +4264,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3982,36 +4282,36 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9.56</v>
+        <v>9.621</v>
       </c>
       <c r="C100" t="n">
-        <v>9.659000000000001</v>
+        <v>9.621</v>
       </c>
       <c r="D100" t="n">
-        <v>9.659000000000001</v>
+        <v>9.621</v>
       </c>
       <c r="E100" t="n">
-        <v>9.56</v>
+        <v>9.621</v>
       </c>
       <c r="F100" t="n">
-        <v>2829</v>
+        <v>21726.4566</v>
       </c>
       <c r="G100" t="n">
-        <v>-2804670.634307352</v>
+        <v>-2938456.946107352</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M100" t="n">
@@ -4024,22 +4324,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9.553000000000001</v>
+        <v>9.613</v>
       </c>
       <c r="C101" t="n">
-        <v>9.553000000000001</v>
+        <v>9.613</v>
       </c>
       <c r="D101" t="n">
-        <v>9.553000000000001</v>
+        <v>9.613</v>
       </c>
       <c r="E101" t="n">
-        <v>9.553000000000001</v>
+        <v>9.613</v>
       </c>
       <c r="F101" t="n">
-        <v>1915.1574</v>
+        <v>22214.7062</v>
       </c>
       <c r="G101" t="n">
-        <v>-2806585.791707352</v>
+        <v>-2960671.652307352</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4048,7 +4348,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4064,33 +4366,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="C102" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="D102" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="E102" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="F102" t="n">
-        <v>1481.4555</v>
+        <v>26009.1553</v>
       </c>
       <c r="G102" t="n">
-        <v>-2806585.791707352</v>
+        <v>-2986680.807607352</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>9.553000000000001</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4106,22 +4408,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="C103" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="D103" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="E103" t="n">
-        <v>9.553000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="F103" t="n">
-        <v>100000</v>
+        <v>113.8798</v>
       </c>
       <c r="G103" t="n">
-        <v>-2806585.791707352</v>
+        <v>-2986680.807607352</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4130,7 +4432,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4146,22 +4450,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9.552</v>
+        <v>9.612</v>
       </c>
       <c r="C104" t="n">
-        <v>9.550000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="D104" t="n">
-        <v>9.638999999999999</v>
+        <v>9.612</v>
       </c>
       <c r="E104" t="n">
-        <v>9.550000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="F104" t="n">
-        <v>94866</v>
+        <v>116370.3465</v>
       </c>
       <c r="G104" t="n">
-        <v>-2901451.791707352</v>
+        <v>-2986680.807607352</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4170,7 +4474,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,22 +4492,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9.550000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="C105" t="n">
-        <v>9.5</v>
+        <v>9.612</v>
       </c>
       <c r="D105" t="n">
-        <v>9.550000000000001</v>
+        <v>9.612</v>
       </c>
       <c r="E105" t="n">
-        <v>9.5</v>
+        <v>9.612</v>
       </c>
       <c r="F105" t="n">
-        <v>228696</v>
+        <v>151549.7068</v>
       </c>
       <c r="G105" t="n">
-        <v>-3130147.791707352</v>
+        <v>-2986680.807607352</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4210,7 +4516,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,22 +4534,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9.5</v>
+        <v>9.621</v>
       </c>
       <c r="C106" t="n">
-        <v>9.5</v>
+        <v>9.621</v>
       </c>
       <c r="D106" t="n">
-        <v>9.5</v>
+        <v>9.621</v>
       </c>
       <c r="E106" t="n">
-        <v>9.5</v>
+        <v>9.621</v>
       </c>
       <c r="F106" t="n">
-        <v>50967.8705</v>
+        <v>6085.61</v>
       </c>
       <c r="G106" t="n">
-        <v>-3130147.791707352</v>
+        <v>-2980595.197607352</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4250,7 +4558,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,22 +4576,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9.629</v>
+        <v>9.621</v>
       </c>
       <c r="C107" t="n">
-        <v>9.629</v>
+        <v>9.621</v>
       </c>
       <c r="D107" t="n">
-        <v>9.629</v>
+        <v>9.621</v>
       </c>
       <c r="E107" t="n">
-        <v>9.629</v>
+        <v>9.621</v>
       </c>
       <c r="F107" t="n">
-        <v>52</v>
+        <v>9552.856299999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-3130095.791707352</v>
+        <v>-2980595.197607352</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4290,7 +4600,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4306,22 +4618,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9.500999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>9.500999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="D108" t="n">
-        <v>9.500999999999999</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>9.500999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="F108" t="n">
-        <v>49037.7287</v>
+        <v>988241</v>
       </c>
       <c r="G108" t="n">
-        <v>-3179133.520407352</v>
+        <v>-2980595.197607352</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4330,7 +4642,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,22 +4660,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9.500999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="C109" t="n">
-        <v>9.500999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>9.500999999999999</v>
+        <v>9.621</v>
       </c>
       <c r="E109" t="n">
-        <v>9.500999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="F109" t="n">
-        <v>56278.1988</v>
+        <v>11759</v>
       </c>
       <c r="G109" t="n">
-        <v>-3179133.520407352</v>
+        <v>-2992354.197607352</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4370,7 +4684,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>9.6</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,42 +4702,1260 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>9.708</v>
+      </c>
+      <c r="C110" t="n">
+        <v>9.708</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9.708</v>
+      </c>
+      <c r="E110" t="n">
+        <v>9.708</v>
+      </c>
+      <c r="F110" t="n">
+        <v>10169.7928</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-2982184.404807352</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>305</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2982489.404807352</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C112" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F112" t="n">
+        <v>115957.6006</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3098447.005407352</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C113" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E113" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.8624000000000001</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-3098447.005407352</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="C114" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9.583</v>
+      </c>
+      <c r="E114" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4609.0394</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3103056.044807352</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="C115" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="D115" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="E115" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2358.2484</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3103056.044807352</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C116" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="D116" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="E116" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F116" t="n">
+        <v>54</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3103002.044807352</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="C117" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="E117" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>19997.3961</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3083004.648707352</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="C118" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="E118" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="F118" t="n">
+        <v>116370.3465</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-3199374.995207352</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="C119" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="E119" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="F119" t="n">
+        <v>54</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3199320.995207352</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>9409.264300000001</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-3208730.259507352</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F121" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-3208730.259507352</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3638.9273</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-3208730.259507352</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.611000000000001</v>
+      </c>
+      <c r="F123" t="n">
+        <v>486441.0323</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2722289.227207352</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="C124" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="E124" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1203.431</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2721085.796207352</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>9.561</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.561</v>
+      </c>
+      <c r="E125" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F125" t="n">
+        <v>33072.91</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2754158.706207352</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="C126" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.555</v>
+      </c>
+      <c r="E126" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="F126" t="n">
+        <v>53421.1209</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2807579.827107352</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="C127" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="E127" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="F127" t="n">
+        <v>15826.5744</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2807579.827107352</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C128" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="E128" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F128" t="n">
+        <v>80.19280000000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2807499.634307352</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="C129" t="n">
+        <v>9.659000000000001</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.659000000000001</v>
+      </c>
+      <c r="E129" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2829</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2804670.634307352</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1915.1574</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2806585.791707352</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1481.4555</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2806585.791707352</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="C132" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="E132" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2806585.791707352</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>9.552</v>
+      </c>
+      <c r="C133" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.638999999999999</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>94866</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2901451.791707352</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>228696</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-3130147.791707352</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>50967.8705</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-3130147.791707352</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="C136" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="E136" t="n">
+        <v>9.629</v>
+      </c>
+      <c r="F136" t="n">
+        <v>52</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3130095.791707352</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
         <v>9.500999999999999</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C137" t="n">
         <v>9.500999999999999</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D137" t="n">
         <v>9.500999999999999</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E137" t="n">
         <v>9.500999999999999</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F137" t="n">
+        <v>49037.7287</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-3179133.520407352</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="E138" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="F138" t="n">
+        <v>56278.1988</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-3179133.520407352</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="C139" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="F139" t="n">
         <v>13595.7383</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G139" t="n">
         <v>-3179133.520407352</v>
       </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>9.500999999999999</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N139"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,21 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>9.551</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +756,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +793,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +830,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +867,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +904,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +941,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +978,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1015,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1052,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1089,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1126,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1163,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1200,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,24 +1235,19 @@
         <v>-2012787.941607352</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1292,20 +1274,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1332,20 +1311,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1370,24 +1346,19 @@
         <v>-2014852.301607352</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,24 +1383,21 @@
         <v>-2014852.301607352</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
         <v>9.59</v>
       </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1454,24 +1422,19 @@
         <v>-1984852.301607352</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,24 +1459,19 @@
         <v>-1984852.301607352</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>9.590999999999999</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1538,24 +1496,21 @@
         <v>-1984800.301607352</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
         <v>9.590999999999999</v>
       </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1582,20 +1537,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1622,20 +1574,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1662,20 +1611,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1702,20 +1648,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1740,22 +1683,17 @@
         <v>-2080693.651707352</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1780,22 +1718,15 @@
         <v>-2080693.651707352</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1820,22 +1751,15 @@
         <v>-2083206.124207352</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1862,20 +1786,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1900,24 +1817,15 @@
         <v>-2116140.019007352</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>9.609999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1944,20 +1852,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1982,24 +1883,15 @@
         <v>-2167894.019007352</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>9.590999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2024,24 +1916,15 @@
         <v>-2167722.688807352</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>9.590999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2066,24 +1949,15 @@
         <v>-2167722.688807352</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>9.609999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2108,24 +1982,15 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>9.609999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2152,20 +2017,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2190,20 +2048,15 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L47" t="n">
+        <v>1</v>
       </c>
       <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2230,16 +2083,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2266,16 +2116,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2302,16 +2149,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2338,16 +2182,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2374,16 +2215,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2408,18 +2246,15 @@
         <v>-2372860.964107352</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2444,18 +2279,15 @@
         <v>-2372860.964107352</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2482,16 +2314,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2518,16 +2347,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2554,16 +2380,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2590,16 +2413,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2626,16 +2446,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2660,22 +2477,15 @@
         <v>-2319998.708907352</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>9.590999999999999</v>
-      </c>
-      <c r="K60" t="n">
-        <v>9.590999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2702,22 +2512,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>9.590999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2744,22 +2545,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>9.590999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2786,16 +2578,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2822,16 +2611,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2858,16 +2644,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2894,16 +2677,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2930,16 +2710,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2966,16 +2743,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3002,16 +2776,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3036,22 +2807,15 @@
         <v>-2508552.146607352</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3076,26 +2840,15 @@
         <v>-2763228.746407352</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="K71" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3120,26 +2873,15 @@
         <v>-2758029.364007352</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K72" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3164,26 +2906,15 @@
         <v>-2735739.741707352</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>9.603</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3210,22 +2941,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3252,22 +2974,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3294,22 +3007,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3336,22 +3040,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3378,22 +3073,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3420,22 +3106,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3462,22 +3139,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3504,22 +3172,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3546,22 +3205,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3588,22 +3238,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3630,22 +3271,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3672,22 +3304,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3714,22 +3337,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3756,22 +3370,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3798,22 +3403,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3840,22 +3436,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3882,22 +3469,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3924,22 +3502,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3966,22 +3535,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4008,22 +3568,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4050,22 +3601,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4092,22 +3634,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4134,22 +3667,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4176,22 +3700,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4218,22 +3733,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4260,22 +3766,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4302,22 +3799,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4344,22 +3832,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4386,22 +3865,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4428,22 +3898,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4470,22 +3931,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4512,22 +3964,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4554,22 +3997,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4596,22 +4030,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4638,22 +4063,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4680,22 +4096,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4722,22 +4129,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4764,22 +4162,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4806,22 +4195,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4848,22 +4228,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4890,22 +4261,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4932,22 +4294,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4974,22 +4327,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5016,22 +4360,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5056,24 +4391,21 @@
         <v>-3199374.995207352</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>9.611000000000001</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5098,24 +4430,21 @@
         <v>-3199320.995207352</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>9.552</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5142,22 +4471,17 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5184,22 +4508,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5226,22 +4545,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5266,24 +4580,21 @@
         <v>-2722289.227207352</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5310,22 +4621,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5352,22 +4658,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L125" t="inlineStr">
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5394,22 +4695,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L126" t="inlineStr">
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5436,22 +4732,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5478,22 +4769,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5520,22 +4806,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5562,22 +4843,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5604,22 +4880,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5646,22 +4917,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5688,22 +4954,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5730,22 +4991,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5772,22 +5028,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5814,22 +5065,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5856,22 +5102,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5898,22 +5139,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5940,24 +5176,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-1574981.548407352</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -717,15 +717,9 @@
       <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>9.551</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -754,15 +748,11 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -791,15 +781,11 @@
         <v>-1645976.223207352</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -832,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -869,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -906,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -943,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -980,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1017,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1050,15 +1012,11 @@
         <v>-1869845.426807352</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1091,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1128,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1165,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1202,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1239,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1313,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1350,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1383,17 +1309,11 @@
         <v>-2014852.301607352</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1426,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1463,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1496,17 +1408,11 @@
         <v>-1984800.301607352</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>9.590999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1539,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1576,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1613,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1650,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1683,16 +1573,14 @@
         <v>-2080693.651707352</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1718,7 +1606,7 @@
         <v>-2080693.651707352</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1751,7 +1639,7 @@
         <v>-2083206.124207352</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2048,7 +1936,7 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2246,7 +2134,7 @@
         <v>-2372860.964107352</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2279,7 +2167,7 @@
         <v>-2372860.964107352</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -4391,17 +4279,11 @@
         <v>-3199374.995207352</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
-      </c>
-      <c r="I118" t="n">
-        <v>9.611000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4430,17 +4312,11 @@
         <v>-3199320.995207352</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>9.552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4473,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4547,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4580,17 +4444,11 @@
         <v>-2722289.227207352</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4623,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4660,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4697,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4734,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4808,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4956,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5063,15 +4873,15 @@
         <v>-3130095.791707352</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5103,10 +4913,12 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9.5</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -5140,10 +4952,12 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9.5</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5178,17 +4992,13 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>-1574981.548407352</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-1647227.798107352</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-1645976.223207352</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-1869845.426807352</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2319998.708907352</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -4642,11 +4642,17 @@
         <v>-2804670.634307352</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>9.56</v>
+      </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4685,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4722,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4759,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +4792,17 @@
         <v>-2901451.791707352</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>9.553000000000001</v>
+      </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4811,7 +4835,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,7 +4872,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,15 +4905,15 @@
         <v>-3130095.791707352</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4913,12 +4945,10 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L137" t="n">
@@ -4952,12 +4982,10 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -4992,13 +5020,17 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
       <c r="M139" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -1936,7 +1936,7 @@
         <v>-2167667.688807352</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-2337092.564107352</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-2319998.708907352</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -4444,10 +4444,14 @@
         <v>-2722289.227207352</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J123" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
@@ -4480,8 +4484,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4523,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4562,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4601,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4640,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,15 +4676,15 @@
         <v>-2804670.634307352</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4681,10 +4715,14 @@
         <v>-2806585.791707352</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>9.659000000000001</v>
+      </c>
+      <c r="J130" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4721,7 +4759,9 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4755,10 +4795,14 @@
         <v>-2806585.791707352</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>9.553000000000001</v>
+      </c>
+      <c r="J132" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4792,12 +4836,12 @@
         <v>-2901451.791707352</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>9.553000000000001</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4834,7 +4878,9 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,7 +4917,9 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4905,10 +4953,14 @@
         <v>-3130095.791707352</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J136" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4945,7 +4997,9 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4982,7 +5036,9 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5016,10 +5072,14 @@
         <v>-3179133.520407352</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>9.500999999999999</v>
+      </c>
+      <c r="J139" t="n">
+        <v>9.6</v>
+      </c>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-15 BackTest RNT.xlsx
+++ b/BackTest/2020-01-15 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:L139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>94321.6422</v>
       </c>
       <c r="G2" t="n">
-        <v>-1412745.285807352</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>462.002</v>
       </c>
       <c r="G3" t="n">
-        <v>-1413207.287807352</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>11008.876</v>
       </c>
       <c r="G4" t="n">
-        <v>-1424216.163807352</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>150765.3846</v>
       </c>
       <c r="G5" t="n">
-        <v>-1574981.548407352</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>72246.2497</v>
       </c>
       <c r="G6" t="n">
-        <v>-1647227.798107352</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>77217.6039</v>
       </c>
       <c r="G7" t="n">
-        <v>-1647227.798107352</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>42821.7247</v>
       </c>
       <c r="G8" t="n">
-        <v>-1647227.798107352</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>18002.3128</v>
       </c>
       <c r="G9" t="n">
-        <v>-1647227.798107352</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>78372.93369999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-1647227.798107352</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,21 @@
         <v>61682.5686</v>
       </c>
       <c r="G11" t="n">
-        <v>-1647227.798107352</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.551</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +749,19 @@
         <v>1251.5749</v>
       </c>
       <c r="G12" t="n">
-        <v>-1645976.223207352</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +783,19 @@
         <v>8521.1561</v>
       </c>
       <c r="G13" t="n">
-        <v>-1637455.067107352</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +817,19 @@
         <v>64873.9288</v>
       </c>
       <c r="G14" t="n">
-        <v>-1572581.138307352</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +851,19 @@
         <v>14331</v>
       </c>
       <c r="G15" t="n">
-        <v>-1586912.138307352</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +885,19 @@
         <v>34002.4381</v>
       </c>
       <c r="G16" t="n">
-        <v>-1620914.576407352</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +919,19 @@
         <v>4777</v>
       </c>
       <c r="G17" t="n">
-        <v>-1620914.576407352</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +953,19 @@
         <v>13471.4065</v>
       </c>
       <c r="G18" t="n">
-        <v>-1620914.576407352</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +987,19 @@
         <v>248930.8504</v>
       </c>
       <c r="G19" t="n">
-        <v>-1869845.426807352</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1021,19 @@
         <v>4764.2404</v>
       </c>
       <c r="G20" t="n">
-        <v>-1865081.186407352</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1055,21 @@
         <v>17327</v>
       </c>
       <c r="G21" t="n">
-        <v>-1847754.186407352</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1091,19 @@
         <v>33248</v>
       </c>
       <c r="G22" t="n">
-        <v>-1847754.186407352</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1125,21 @@
         <v>180000</v>
       </c>
       <c r="G23" t="n">
-        <v>-2027754.186407352</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1161,21 @@
         <v>14966.2448</v>
       </c>
       <c r="G24" t="n">
-        <v>-2012787.941607352</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>9.59</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1197,21 @@
         <v>1038.4216</v>
       </c>
       <c r="G25" t="n">
-        <v>-2012787.941607352</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1233,19 @@
         <v>2064.36</v>
       </c>
       <c r="G26" t="n">
-        <v>-2014852.301607352</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1267,19 @@
         <v>41030.9768</v>
       </c>
       <c r="G27" t="n">
-        <v>-2014852.301607352</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1301,19 @@
         <v>4781.1426</v>
       </c>
       <c r="G28" t="n">
-        <v>-2014852.301607352</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1335,21 @@
         <v>30000</v>
       </c>
       <c r="G29" t="n">
-        <v>-1984852.301607352</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.59</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1371,21 @@
         <v>42075.2783</v>
       </c>
       <c r="G30" t="n">
-        <v>-1984852.301607352</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1407,21 @@
         <v>52</v>
       </c>
       <c r="G31" t="n">
-        <v>-1984800.301607352</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9.590999999999999</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1443,19 @@
         <v>24393.0415</v>
       </c>
       <c r="G32" t="n">
-        <v>-1984800.301607352</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1477,19 @@
         <v>15638.29</v>
       </c>
       <c r="G33" t="n">
-        <v>-2000438.591607352</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1511,19 @@
         <v>5983.319</v>
       </c>
       <c r="G34" t="n">
-        <v>-1994455.272607352</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1545,19 @@
         <v>29948.4333</v>
       </c>
       <c r="G35" t="n">
-        <v>-2024403.705907352</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1579,19 @@
         <v>56289.9458</v>
       </c>
       <c r="G36" t="n">
-        <v>-2080693.651707352</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1613,19 @@
         <v>19077.5484</v>
       </c>
       <c r="G37" t="n">
-        <v>-2080693.651707352</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1647,19 @@
         <v>2512.4725</v>
       </c>
       <c r="G38" t="n">
-        <v>-2083206.124207352</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1681,19 @@
         <v>17066.1052</v>
       </c>
       <c r="G39" t="n">
-        <v>-2066140.019007352</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1715,21 @@
         <v>50000</v>
       </c>
       <c r="G40" t="n">
-        <v>-2116140.019007352</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1751,19 @@
         <v>51754</v>
       </c>
       <c r="G41" t="n">
-        <v>-2167894.019007352</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1785,19 @@
         <v>3000</v>
       </c>
       <c r="G42" t="n">
-        <v>-2167894.019007352</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1819,19 @@
         <v>171.3302</v>
       </c>
       <c r="G43" t="n">
-        <v>-2167722.688807352</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1853,19 @@
         <v>316257.7946</v>
       </c>
       <c r="G44" t="n">
-        <v>-2167722.688807352</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1887,21 @@
         <v>55</v>
       </c>
       <c r="G45" t="n">
-        <v>-2167667.688807352</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1923,21 @@
         <v>7482.2357</v>
       </c>
       <c r="G46" t="n">
-        <v>-2167667.688807352</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1959,19 @@
         <v>15950</v>
       </c>
       <c r="G47" t="n">
-        <v>-2167667.688807352</v>
-      </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1993,21 @@
         <v>277.7024</v>
       </c>
       <c r="G48" t="n">
-        <v>-2167945.391207352</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>9.69</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2029,21 @@
         <v>52</v>
       </c>
       <c r="G49" t="n">
-        <v>-2167893.391207352</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>9.67</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2065,19 @@
         <v>250</v>
       </c>
       <c r="G50" t="n">
-        <v>-2167643.391207352</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2099,19 @@
         <v>1924.31</v>
       </c>
       <c r="G51" t="n">
-        <v>-2167643.391207352</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2133,19 @@
         <v>205269.5729</v>
       </c>
       <c r="G52" t="n">
-        <v>-2372912.964107352</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2167,19 @@
         <v>52</v>
       </c>
       <c r="G53" t="n">
-        <v>-2372860.964107352</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2201,17 @@
         <v>204.8542</v>
       </c>
       <c r="G54" t="n">
-        <v>-2372860.964107352</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2233,15 @@
         <v>35768.4</v>
       </c>
       <c r="G55" t="n">
-        <v>-2337092.564107352</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2263,15 @@
         <v>13242.06</v>
       </c>
       <c r="G56" t="n">
-        <v>-2337092.564107352</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2293,15 @@
         <v>45640.9733</v>
       </c>
       <c r="G57" t="n">
-        <v>-2291451.590807352</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2323,15 @@
         <v>233.7274</v>
       </c>
       <c r="G58" t="n">
-        <v>-2291451.590807352</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2353,15 @@
         <v>28599.1181</v>
       </c>
       <c r="G59" t="n">
-        <v>-2320050.708907352</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2383,15 @@
         <v>52</v>
       </c>
       <c r="G60" t="n">
-        <v>-2319998.708907352</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2413,15 @@
         <v>52</v>
       </c>
       <c r="G61" t="n">
-        <v>-2319946.708907352</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2443,15 @@
         <v>22793.93</v>
       </c>
       <c r="G62" t="n">
-        <v>-2319946.708907352</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2473,15 @@
         <v>22793.93</v>
       </c>
       <c r="G63" t="n">
-        <v>-2297152.778907352</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2503,15 @@
         <v>37646.02</v>
       </c>
       <c r="G64" t="n">
-        <v>-2334798.798907352</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2533,15 @@
         <v>5557.78</v>
       </c>
       <c r="G65" t="n">
-        <v>-2334798.798907352</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2563,15 @@
         <v>28523.8</v>
       </c>
       <c r="G66" t="n">
-        <v>-2334798.798907352</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2593,15 @@
         <v>62722.03</v>
       </c>
       <c r="G67" t="n">
-        <v>-2272076.768907352</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2623,15 @@
         <v>52</v>
       </c>
       <c r="G68" t="n">
-        <v>-2272024.768907352</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2653,15 @@
         <v>253685.4517</v>
       </c>
       <c r="G69" t="n">
-        <v>-2525710.220607352</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2683,15 @@
         <v>17158.074</v>
       </c>
       <c r="G70" t="n">
-        <v>-2508552.146607352</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2713,15 @@
         <v>254676.5998</v>
       </c>
       <c r="G71" t="n">
-        <v>-2763228.746407352</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2743,15 @@
         <v>5199.3824</v>
       </c>
       <c r="G72" t="n">
-        <v>-2758029.364007352</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2773,15 @@
         <v>22289.6223</v>
       </c>
       <c r="G73" t="n">
-        <v>-2735739.741707352</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2803,15 @@
         <v>3864.09</v>
       </c>
       <c r="G74" t="n">
-        <v>-2735739.741707352</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2833,15 @@
         <v>52.4545</v>
       </c>
       <c r="G75" t="n">
-        <v>-2735687.287207352</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2863,15 @@
         <v>62722.03</v>
       </c>
       <c r="G76" t="n">
-        <v>-2798409.317207352</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2893,15 @@
         <v>46436.1087</v>
       </c>
       <c r="G77" t="n">
-        <v>-2751973.208507352</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2923,15 @@
         <v>99269.59699999999</v>
       </c>
       <c r="G78" t="n">
-        <v>-2751973.208507352</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2953,15 @@
         <v>54.4545</v>
       </c>
       <c r="G79" t="n">
-        <v>-2751918.754007352</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2983,15 @@
         <v>987.2968</v>
       </c>
       <c r="G80" t="n">
-        <v>-2752906.050807352</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3013,15 @@
         <v>3186.4554</v>
       </c>
       <c r="G81" t="n">
-        <v>-2756092.506207352</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3043,15 @@
         <v>607.4081</v>
       </c>
       <c r="G82" t="n">
-        <v>-2756699.914307352</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3073,15 @@
         <v>610</v>
       </c>
       <c r="G83" t="n">
-        <v>-2756089.914307352</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3103,15 @@
         <v>72018.78</v>
       </c>
       <c r="G84" t="n">
-        <v>-2756089.914307352</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3133,15 @@
         <v>51089.7732</v>
       </c>
       <c r="G85" t="n">
-        <v>-2807179.687507352</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3163,15 @@
         <v>37602.8878</v>
       </c>
       <c r="G86" t="n">
-        <v>-2769576.799707352</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3193,15 @@
         <v>8137.177</v>
       </c>
       <c r="G87" t="n">
-        <v>-2769576.799707352</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3223,15 @@
         <v>54.4444</v>
       </c>
       <c r="G88" t="n">
-        <v>-2769522.355307352</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3253,15 @@
         <v>116672.35</v>
       </c>
       <c r="G89" t="n">
-        <v>-2886194.705307352</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3283,15 @@
         <v>54</v>
       </c>
       <c r="G90" t="n">
-        <v>-2886140.705307352</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3313,15 @@
         <v>108</v>
       </c>
       <c r="G91" t="n">
-        <v>-2886140.705307352</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3343,15 @@
         <v>133215.5799</v>
       </c>
       <c r="G92" t="n">
-        <v>-3019356.285207352</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3373,15 @@
         <v>54</v>
       </c>
       <c r="G93" t="n">
-        <v>-3019302.285207352</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3403,15 @@
         <v>7192.1924</v>
       </c>
       <c r="G94" t="n">
-        <v>-3019302.285207352</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3433,15 @@
         <v>52</v>
       </c>
       <c r="G95" t="n">
-        <v>-3019250.285207352</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3463,15 @@
         <v>57078.1037</v>
       </c>
       <c r="G96" t="n">
-        <v>-3076328.388907352</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3493,15 @@
         <v>6931.6692</v>
       </c>
       <c r="G97" t="n">
-        <v>-3083260.058107351</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3523,15 @@
         <v>169465.5946</v>
       </c>
       <c r="G98" t="n">
-        <v>-2913794.463507351</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3553,15 @@
         <v>24662.4826</v>
       </c>
       <c r="G99" t="n">
-        <v>-2938456.946107352</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3583,15 @@
         <v>21726.4566</v>
       </c>
       <c r="G100" t="n">
-        <v>-2938456.946107352</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3613,15 @@
         <v>22214.7062</v>
       </c>
       <c r="G101" t="n">
-        <v>-2960671.652307352</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3643,15 @@
         <v>26009.1553</v>
       </c>
       <c r="G102" t="n">
-        <v>-2986680.807607352</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3673,15 @@
         <v>113.8798</v>
       </c>
       <c r="G103" t="n">
-        <v>-2986680.807607352</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3703,15 @@
         <v>116370.3465</v>
       </c>
       <c r="G104" t="n">
-        <v>-2986680.807607352</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3733,15 @@
         <v>151549.7068</v>
       </c>
       <c r="G105" t="n">
-        <v>-2986680.807607352</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3763,15 @@
         <v>6085.61</v>
       </c>
       <c r="G106" t="n">
-        <v>-2980595.197607352</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3793,15 @@
         <v>9552.856299999999</v>
       </c>
       <c r="G107" t="n">
-        <v>-2980595.197607352</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3823,15 @@
         <v>988241</v>
       </c>
       <c r="G108" t="n">
-        <v>-2980595.197607352</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3853,15 @@
         <v>11759</v>
       </c>
       <c r="G109" t="n">
-        <v>-2992354.197607352</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3883,15 @@
         <v>10169.7928</v>
       </c>
       <c r="G110" t="n">
-        <v>-2982184.404807352</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3913,15 @@
         <v>305</v>
       </c>
       <c r="G111" t="n">
-        <v>-2982489.404807352</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3943,15 @@
         <v>115957.6006</v>
       </c>
       <c r="G112" t="n">
-        <v>-3098447.005407352</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3973,15 @@
         <v>0.8624000000000001</v>
       </c>
       <c r="G113" t="n">
-        <v>-3098447.005407352</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4003,15 @@
         <v>4609.0394</v>
       </c>
       <c r="G114" t="n">
-        <v>-3103056.044807352</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4033,15 @@
         <v>2358.2484</v>
       </c>
       <c r="G115" t="n">
-        <v>-3103056.044807352</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4063,15 @@
         <v>54</v>
       </c>
       <c r="G116" t="n">
-        <v>-3103002.044807352</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4093,15 @@
         <v>19997.3961</v>
       </c>
       <c r="G117" t="n">
-        <v>-3083004.648707352</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4123,15 @@
         <v>116370.3465</v>
       </c>
       <c r="G118" t="n">
-        <v>-3199374.995207352</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4153,15 @@
         <v>54</v>
       </c>
       <c r="G119" t="n">
-        <v>-3199320.995207352</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4183,15 @@
         <v>9409.264300000001</v>
       </c>
       <c r="G120" t="n">
-        <v>-3208730.259507352</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4213,15 @@
         <v>40000</v>
       </c>
       <c r="G121" t="n">
-        <v>-3208730.259507352</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4243,15 @@
         <v>3638.9273</v>
       </c>
       <c r="G122" t="n">
-        <v>-3208730.259507352</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,22 +4273,15 @@
         <v>486441.0323</v>
       </c>
       <c r="G123" t="n">
-        <v>-2722289.227207352</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="J123" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4478,24 +4303,15 @@
         <v>1203.431</v>
       </c>
       <c r="G124" t="n">
-        <v>-2721085.796207352</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4517,24 +4333,15 @@
         <v>33072.91</v>
       </c>
       <c r="G125" t="n">
-        <v>-2754158.706207352</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4556,24 +4363,15 @@
         <v>53421.1209</v>
       </c>
       <c r="G126" t="n">
-        <v>-2807579.827107352</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4595,24 +4393,15 @@
         <v>15826.5744</v>
       </c>
       <c r="G127" t="n">
-        <v>-2807579.827107352</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4634,24 +4423,15 @@
         <v>80.19280000000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-2807499.634307352</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4673,24 +4453,15 @@
         <v>2829</v>
       </c>
       <c r="G129" t="n">
-        <v>-2804670.634307352</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4712,26 +4483,15 @@
         <v>1915.1574</v>
       </c>
       <c r="G130" t="n">
-        <v>-2806585.791707352</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>9.659000000000001</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4753,24 +4513,15 @@
         <v>1481.4555</v>
       </c>
       <c r="G131" t="n">
-        <v>-2806585.791707352</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4792,26 +4543,15 @@
         <v>100000</v>
       </c>
       <c r="G132" t="n">
-        <v>-2806585.791707352</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>9.553000000000001</v>
-      </c>
-      <c r="J132" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4833,24 +4573,15 @@
         <v>94866</v>
       </c>
       <c r="G133" t="n">
-        <v>-2901451.791707352</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4872,24 +4603,15 @@
         <v>228696</v>
       </c>
       <c r="G134" t="n">
-        <v>-3130147.791707352</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4911,24 +4633,15 @@
         <v>50967.8705</v>
       </c>
       <c r="G135" t="n">
-        <v>-3130147.791707352</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4950,26 +4663,15 @@
         <v>52</v>
       </c>
       <c r="G136" t="n">
-        <v>-3130095.791707352</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="J136" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4991,24 +4693,15 @@
         <v>49037.7287</v>
       </c>
       <c r="G137" t="n">
-        <v>-3179133.520407352</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5030,24 +4723,15 @@
         <v>56278.1988</v>
       </c>
       <c r="G138" t="n">
-        <v>-3179133.520407352</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5069,26 +4753,15 @@
         <v>13595.7383</v>
       </c>
       <c r="G139" t="n">
-        <v>-3179133.520407352</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>9.500999999999999</v>
-      </c>
-      <c r="J139" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
